--- a/Documents/Planning projet.xlsx
+++ b/Documents/Planning projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Héloïse\Documents\Polytech\Arduino projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F88B4F75-9C49-44F6-977F-28A823C56512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{034C0637-8A0E-4E7A-A16E-41284207A638}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{76DD20BF-2462-4CC7-9D92-0B674E15066B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t xml:space="preserve">Color Rabbit prediction </t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Planning du projet, diagramme de Grantt</t>
-  </si>
-  <si>
-    <t>Théo Lemaire</t>
-  </si>
-  <si>
-    <t>Héloïse Faure</t>
   </si>
   <si>
     <t xml:space="preserve">                  Séance 1                  </t>
@@ -120,12 +114,6 @@
     <t>maquette</t>
   </si>
   <si>
-    <t>prévu</t>
-  </si>
-  <si>
-    <t>Théo et Héloïse</t>
-  </si>
-  <si>
     <t>theo</t>
   </si>
   <si>
@@ -151,6 +139,21 @@
   </si>
   <si>
     <t xml:space="preserve">helo theo </t>
+  </si>
+  <si>
+    <t>Héloïse</t>
+  </si>
+  <si>
+    <t>Théo</t>
+  </si>
+  <si>
+    <t>Théo et Hélo</t>
+  </si>
+  <si>
+    <t>séances prévues au début du projet</t>
+  </si>
+  <si>
+    <t>ce qui est réellement fait</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,17 +234,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,13 +293,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -326,13 +349,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -688,335 +711,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16A12F4-BD27-47BC-96F1-578C295C7EF3}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="H1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="G2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q8" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
+      <c r="F20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="4"/>
+        <v>28</v>
+      </c>
       <c r="N28" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4"/>
       <c r="N30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="M32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>32</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
